--- a/myexp.xlsx
+++ b/myexp.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -460,13 +460,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>252.8291015625</v>
+        <v>128.1044921875</v>
       </c>
       <c r="C2" t="n">
-        <v>763.8544921875</v>
+        <v>414.2431640625</v>
       </c>
       <c r="D2" t="n">
-        <v>304.794921875</v>
+        <v>157.6279296875</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>367.6015625</v>
+        <v>156.603515625</v>
       </c>
       <c r="C3" t="n">
-        <v>1127.05078125</v>
+        <v>452.9951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>440.7353515625</v>
+        <v>192.54296875</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>739.8740234375</v>
+        <v>199.091796875</v>
       </c>
       <c r="C4" t="n">
-        <v>1978.1884765625</v>
+        <v>576.5576171875</v>
       </c>
       <c r="D4" t="n">
-        <v>883.1494140625</v>
+        <v>245.451171875</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>835.5341796875</v>
+        <v>307.103515625</v>
       </c>
       <c r="C5" t="n">
-        <v>2317.5087890625</v>
+        <v>666.2197265625</v>
       </c>
       <c r="D5" t="n">
-        <v>996.01953125</v>
+        <v>375.931640625</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>897.9736328125</v>
+        <v>350.5068359375</v>
       </c>
       <c r="C6" t="n">
-        <v>2640.4423828125</v>
+        <v>768.431640625</v>
       </c>
       <c r="D6" t="n">
-        <v>1067.541015625</v>
+        <v>426.9755859375</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>964.1279296875</v>
+        <v>366.966796875</v>
       </c>
       <c r="C7" t="n">
-        <v>3099.21484375</v>
+        <v>824.572265625</v>
       </c>
       <c r="D7" t="n">
-        <v>1144.5390625</v>
+        <v>447.33203125</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>985.2041015625</v>
+        <v>384.1669921875</v>
       </c>
       <c r="C8" t="n">
-        <v>3332.607421875</v>
+        <v>862.015625</v>
       </c>
       <c r="D8" t="n">
-        <v>1168.306640625</v>
+        <v>466.8505859375</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>1280.099609375</v>
+        <v>409.0224609375</v>
       </c>
       <c r="C9" t="n">
-        <v>3675.0732421875</v>
+        <v>908.654296875</v>
       </c>
       <c r="D9" t="n">
-        <v>1517.1796875</v>
+        <v>496.1494140625</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>90</v>
       </c>
       <c r="B10" t="n">
-        <v>1307.40625</v>
+        <v>420.80078125</v>
       </c>
       <c r="C10" t="n">
-        <v>4046.076171875</v>
+        <v>1009.279296875</v>
       </c>
       <c r="D10" t="n">
-        <v>1549.2451171875</v>
+        <v>509.60546875</v>
       </c>
     </row>
     <row r="11">
@@ -586,16 +586,16 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>1349.912109375</v>
+        <v>428.1748046875</v>
       </c>
       <c r="C11" t="n">
-        <v>4229.7900390625</v>
+        <v>1136.607421875</v>
       </c>
       <c r="D11" t="n">
-        <v>1598.55859375</v>
+        <v>517.8115234375</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>